--- a/xlsx/法兰克福汇报_intext.xlsx
+++ b/xlsx/法兰克福汇报_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>法兰克福汇报</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>日報</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_法兰克福汇报</t>
+    <t>日报</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_法兰克福汇报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
   </si>
   <si>
-    <t>中間偏右</t>
+    <t>中间偏右</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F</t>
   </si>
   <si>
-    <t>法蘭克福</t>
+    <t>法兰克福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%8A%A5</t>
   </si>
   <si>
-    <t>日报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%A0%E6%B2%B3</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%A6%8F</t>
   </si>
   <si>
-    <t>法兰克福</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA</t>
   </si>
   <si>
@@ -83,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E8%B2%AC%E4%BB%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>有限責任公司</t>
+    <t>有限责任公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -191,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -215,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -766,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -792,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +815,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>42</v>
@@ -850,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -879,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -908,10 +902,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -966,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -995,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1024,10 +1018,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1053,10 +1047,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1082,10 +1076,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1111,10 +1105,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1140,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1169,10 +1163,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1198,10 +1192,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1227,10 +1221,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1256,10 +1250,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1285,10 +1279,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1314,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1343,10 +1337,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1372,10 +1366,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1401,10 +1395,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1430,10 +1424,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1459,10 +1453,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1488,10 +1482,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1517,10 +1511,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1546,10 +1540,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1575,10 +1569,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
